--- a/Time_tracking.xlsx
+++ b/Time_tracking.xlsx
@@ -5,17 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Pivot Table_Sheet1_1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -28,17 +32,33 @@
   <si>
     <t>Data Munging</t>
   </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Sum - hours</t>
+  </si>
+  <si>
+    <t>(empty)</t>
+  </si>
+  <si>
+    <t>Total Result</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,16 +80,36 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2323DC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -77,8 +117,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -102,30 +205,322 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFE6FF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2323DC"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C19" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="18">
+        <n v="42153"/>
+        <n v="42155"/>
+        <n v="42156"/>
+        <n v="42157"/>
+        <n v="42158"/>
+        <n v="42159"/>
+        <n v="42163"/>
+        <n v="42165"/>
+        <n v="42166"/>
+        <n v="42167"/>
+        <n v="42168"/>
+        <n v="42169"/>
+        <n v="42170"/>
+        <n v="42171"/>
+        <n v="42172"/>
+        <n v="42173"/>
+        <n v="42174"/>
+        <n v="42175"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Calculations"/>
+        <s v="Data Munging"/>
+        <s v="Report"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="hours" numFmtId="0">
+      <sharedItems count="8">
+        <n v="0.0416666666666667"/>
+        <n v="0.0520833333333333"/>
+        <n v="0.0625"/>
+        <n v="0.0729166666666667"/>
+        <n v="0.0833333333333333"/>
+        <n v="0.104166666666667"/>
+        <n v="0.125"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="sum"/>
+  </dataFields>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,10 +528,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -147,131 +542,197 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>42153</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>42155</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1.5</v>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>42156</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>2.5</v>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>42157</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="3" t="n">
         <v>42158</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2</v>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.104166666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="3" t="n">
         <v>42159</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2.5</v>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.104166666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="3" t="n">
         <v>42163</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.5</v>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="3" t="n">
         <v>42165</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>3</v>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <v>42166</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>2.5</v>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.104166666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="3" t="n">
         <v>42167</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1</v>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="2"/>
-      <c r="D12" s="0" t="n">
-        <f aca="false">SUM(C2:C11)</f>
-        <v>20.5</v>
+      <c r="A12" s="3" t="n">
+        <v>42168</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>42169</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>42170</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>42171</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.0729166666666667</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>42173</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>42174</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>42175</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0520833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -283,4 +744,78 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0.09375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>0.833333333333334</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>1.08333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Time_tracking.xlsx
+++ b/Time_tracking.xlsx
@@ -5,21 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Pivot Table_Sheet1_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="RAW" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Pivot Table_RAW_3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Pivot Table_RAW_2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pivot Table_RAW_1" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -27,7 +31,7 @@
     <t>Task</t>
   </si>
   <si>
-    <t>hours</t>
+    <t>Hours</t>
   </si>
   <si>
     <t>Data Munging</t>
@@ -39,13 +43,13 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Sum - hours</t>
-  </si>
-  <si>
-    <t>(empty)</t>
+    <t>Sum - Hours</t>
   </si>
   <si>
     <t>Total Result</t>
+  </si>
+  <si>
+    <t>/hr</t>
   </si>
 </sst>
 </file>
@@ -54,11 +58,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="HH:MM"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-C09]#,##0.00;[RED]\-[$$-C09]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +98,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -109,12 +120,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -224,60 +242,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,13 +382,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="31">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C19" sheet="Sheet1"/>
+    <worksheetSource ref="A1:C32" sheet="RAW"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems count="18">
+      <sharedItems count="29">
         <n v="42153"/>
         <n v="42155"/>
         <n v="42156"/>
@@ -381,30 +403,164 @@
         <n v="42169"/>
         <n v="42170"/>
         <n v="42171"/>
-        <n v="42172"/>
-        <n v="42173"/>
         <n v="42174"/>
         <n v="42175"/>
+        <n v="42177"/>
+        <n v="42178"/>
+        <n v="42179"/>
+        <n v="42180"/>
+        <n v="42181"/>
+        <n v="42185"/>
+        <n v="42186"/>
+        <n v="42187"/>
+        <n v="42188"/>
+        <n v="42192"/>
+        <n v="42193"/>
+        <n v="42194"/>
+        <n v="42195"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="3">
         <s v="Calculations"/>
         <s v="Data Munging"/>
         <s v="Report"/>
-        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="hours" numFmtId="0">
-      <sharedItems count="8">
-        <n v="0.0416666666666667"/>
-        <n v="0.0520833333333333"/>
-        <n v="0.0625"/>
-        <n v="0.0729166666666667"/>
-        <n v="0.0833333333333333"/>
-        <n v="0.104166666666667"/>
-        <n v="0.125"/>
-        <m/>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems count="9">
+        <n v="0.75"/>
+        <n v="1"/>
+        <n v="1.25"/>
+        <n v="1.5"/>
+        <n v="1.75"/>
+        <n v="2"/>
+        <n v="2.25"/>
+        <n v="2.5"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="30">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C31" sheet="RAW"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="28">
+        <n v="42153"/>
+        <n v="42155"/>
+        <n v="42156"/>
+        <n v="42157"/>
+        <n v="42158"/>
+        <n v="42159"/>
+        <n v="42163"/>
+        <n v="42165"/>
+        <n v="42166"/>
+        <n v="42167"/>
+        <n v="42168"/>
+        <n v="42169"/>
+        <n v="42170"/>
+        <n v="42171"/>
+        <n v="42174"/>
+        <n v="42175"/>
+        <n v="42177"/>
+        <n v="42178"/>
+        <n v="42179"/>
+        <n v="42180"/>
+        <n v="42181"/>
+        <n v="42185"/>
+        <n v="42186"/>
+        <n v="42187"/>
+        <n v="42188"/>
+        <n v="42192"/>
+        <n v="42193"/>
+        <n v="42194"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Calculations"/>
+        <s v="Data Munging"/>
+        <s v="Report"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems count="9">
+        <n v="0.75"/>
+        <n v="1"/>
+        <n v="1.25"/>
+        <n v="1.5"/>
+        <n v="1.75"/>
+        <n v="2"/>
+        <n v="2.25"/>
+        <n v="2.5"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="29">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C30" sheet="RAW"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="27">
+        <n v="42153"/>
+        <n v="42155"/>
+        <n v="42156"/>
+        <n v="42157"/>
+        <n v="42158"/>
+        <n v="42159"/>
+        <n v="42163"/>
+        <n v="42165"/>
+        <n v="42166"/>
+        <n v="42167"/>
+        <n v="42168"/>
+        <n v="42169"/>
+        <n v="42170"/>
+        <n v="42171"/>
+        <n v="42174"/>
+        <n v="42175"/>
+        <n v="42177"/>
+        <n v="42178"/>
+        <n v="42179"/>
+        <n v="42180"/>
+        <n v="42181"/>
+        <n v="42185"/>
+        <n v="42186"/>
+        <n v="42187"/>
+        <n v="42188"/>
+        <n v="42192"/>
+        <n v="42193"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Calculations"/>
+        <s v="Data Munging"/>
+        <s v="Report"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems count="9">
+        <n v="0.75"/>
+        <n v="1"/>
+        <n v="1.25"/>
+        <n v="1.5"/>
+        <n v="1.75"/>
+        <n v="2"/>
+        <n v="2.25"/>
+        <n v="2.5"/>
+        <n v="3"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -412,103 +568,507 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
     <x v="4"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
     <x v="6"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
     <x v="6"/>
-  </r>
-  <r>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
     <x v="8"/>
-    <x v="1"/>
-    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
-    <x v="7"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="2"/>
     <x v="4"/>
   </r>
   <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="12"/>
     <x v="1"/>
-    <x v="7"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="13"/>
     <x v="2"/>
-    <x v="3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="14"/>
-    <x v="3"/>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="3"/>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="16"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="17"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
-  <location ref="A1:B6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="sum"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <dataFields count="1">
+    <dataField fld="2" subtotal="sum"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1">
+  <location ref="A1:B5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0"/>
@@ -526,12 +1086,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF0000FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -548,191 +1109,360 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>42153</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.125</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>42155</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.0625</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.0625</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>42157</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>42158</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.104166666666667</v>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>42159</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.104166666666667</v>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>42163</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.0625</v>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>42165</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.125</v>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>42166</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.104166666666667</v>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>42167</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0.0416666666666667</v>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>42168</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>42169</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>0.0833333333333333</v>
+      <c r="C13" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>42170</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>42171</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>0.0729166666666667</v>
+      <c r="C15" s="3" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>42172</v>
+      <c r="A16" s="2" t="n">
+        <v>42174</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>42173</v>
+      <c r="A17" s="2" t="n">
+        <v>42175</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>42174</v>
+      <c r="A18" s="2" t="n">
+        <v>42177</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>0.0416666666666667</v>
+      <c r="C18" s="3" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>42175</v>
+      <c r="A19" s="2" t="n">
+        <v>42178</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>42179</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>42180</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>42181</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>0.0520833333333333</v>
+      <c r="C23" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>42187</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>42188</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>42188</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>42192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>42193</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>42193</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>42194</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>42195</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>42200</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -751,15 +1481,167 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C33 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14" t="n">
+        <f aca="false">10000/B5</f>
+        <v>178.571428571429</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C33 B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14" t="n">
+        <f aca="false">10000/B5</f>
+        <v>186.915887850467</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C33 B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -776,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>0.09375</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,29 +1666,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="n">
-        <v>0.833333333333334</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>0.15625</v>
+      <c r="B4" s="11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="13" t="n">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14" t="n">
+        <f aca="false">10000/B5</f>
+        <v>193.236714975845</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="13" t="n">
-        <v>1.08333333333333</v>
       </c>
     </row>
   </sheetData>
